--- a/bobcares/src/test/java/com/bobcares/testdata/DATA1.xlsx
+++ b/bobcares/src/test/java/com/bobcares/testdata/DATA1.xlsx
@@ -20,36 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">USER</t>
+    <t xml:space="preserve">URL</t>
   </si>
   <si>
-    <t xml:space="preserve">PASSWORD</t>
+    <t xml:space="preserve">https://www.google.com/search?q=car&amp;rlz=1C1YTUH_enIN1012IN1012&amp;oq=car&amp;aqs=chrome..69i57j0i67j0i67i457j0i402l2j0i131i433i512j0i512j0i131i433i512j0i433i512j46i512.928j0j15&amp;sourceid=chrome&amp;ie=UTF-8</t>
   </si>
   <si>
-    <t xml:space="preserve">na</t>
+    <t xml:space="preserve">https://www.google.com/search?q=bike&amp;rlz=1C1YTUH_enIN1012IN1012&amp;sxsrf=ALiCzsZSanxHPvP5j6kXcmrpGoypyEMa9Q%3A1665383707296&amp;ei=G71DY7nOEcuSseMPnPWO0Ak&amp;ved=0ahUKEwj5x6bihdX6AhVLSWwGHZy6A5oQ4dUDCA4&amp;uact=5&amp;oq=bike&amp;gs_lcp=Cgdnd3Mtd2l6EAMyCggAELEDEIMBEEMyBAgAEEMyCggAELEDEIMBEEMyBAgAEEMyBwgAELEDEEMyBwgAEMkDEEMyBAgAEEMyBAgAEEMyCggAELEDEIMBEEMyCwgAEIAEELEDEIMBOgoIABBHENYEELADOg0IABBHENYEELADEMkDOggIABCSAxCwAzoHCAAQsAMQQzoNCAAQ5AIQ1gQQsAMYAToSCC4QxwEQ0QMQyAMQsAMQQxgCOg8ILhDUAhDIAxCwAxBDGAI6BAgjECc6CgguEMcBENEDEEM6EAgAEIAEEIcCELEDEIMBEBQ6CgguELEDENQCEEM6BwgjEOoCECc6CgguEMcBEK8BECc6CwguEIAEELEDEIMBOgUIABCABDoICC4QgAQQsQM6BAguEEM6DQgAELEDEIMBEMkDEENKBAhBGABKBAhGGAFQkAVYnRZgkxloAnABeACAAXWIAZEFkgEDMC42mAEAoAEBsAEKyAETwAEB2gEGCAEQARgJ2gEGCAIQARgI&amp;sclient=gws-wiz</t>
   </si>
   <si>
-    <t xml:space="preserve">ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mnm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nandu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kl</t>
+    <t xml:space="preserve">https://www.google.com/search?q=flight&amp;rlz=1C1YTUH_enIN1012IN1012&amp;sxsrf=ALiCzsZSanxHPvP5j6kXcmrpGoypyEMa9Q%3A1665383707296&amp;ei=G71DY7nOEcuSseMPnPWO0Ak&amp;oq=flight&amp;gs_lcp=Cgdnd3Mtd2l6EAEYADIHCAAQsQMQQzIKCAAQsQMQgwEQQzIHCAAQsQMQQzIKCAAQsQMQgwEQQzILCAAQgAQQsQMQgwEyCgguEMcBENEDEEMyCwgAEIAEELEDEIMBMgsIABCABBCxAxCDATIICAAQsQMQgwEyCwgAEIAEELEDEIMBOgQIABBHOgcIIxDqAhAnOgQIIxAnOgsILhCABBCxAxCDAToFCAAQgAQ6BAgAEEM6BwguENQCEENKBAhBGABKBAhGGABQiARYzh1gxitoAHADeACAAd0CiAGqCJIBBzAuNi4wLjGYAQCgAQGwAQrIAQjAAQE&amp;sclient=gws-wiz</t>
   </si>
 </sst>
 </file>
@@ -64,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -163,50 +146,40 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.86"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/bobcares/src/test/java/com/bobcares/testdata/DATA1.xlsx
+++ b/bobcares/src/test/java/com/bobcares/testdata/DATA1.xlsx
@@ -20,18 +20,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.google.com/search?q=car&amp;rlz=1C1YTUH_enIN1012IN1012&amp;oq=car&amp;aqs=chrome..69i57j0i67j0i67i457j0i402l2j0i131i433i512j0i512j0i131i433i512j0i433i512j46i512.928j0j15&amp;sourceid=chrome&amp;ie=UTF-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.google.com/search?q=bike&amp;rlz=1C1YTUH_enIN1012IN1012&amp;sxsrf=ALiCzsZSanxHPvP5j6kXcmrpGoypyEMa9Q%3A1665383707296&amp;ei=G71DY7nOEcuSseMPnPWO0Ak&amp;ved=0ahUKEwj5x6bihdX6AhVLSWwGHZy6A5oQ4dUDCA4&amp;uact=5&amp;oq=bike&amp;gs_lcp=Cgdnd3Mtd2l6EAMyCggAELEDEIMBEEMyBAgAEEMyCggAELEDEIMBEEMyBAgAEEMyBwgAELEDEEMyBwgAEMkDEEMyBAgAEEMyBAgAEEMyCggAELEDEIMBEEMyCwgAEIAEELEDEIMBOgoIABBHENYEELADOg0IABBHENYEELADEMkDOggIABCSAxCwAzoHCAAQsAMQQzoNCAAQ5AIQ1gQQsAMYAToSCC4QxwEQ0QMQyAMQsAMQQxgCOg8ILhDUAhDIAxCwAxBDGAI6BAgjECc6CgguEMcBENEDEEM6EAgAEIAEEIcCELEDEIMBEBQ6CgguELEDENQCEEM6BwgjEOoCECc6CgguEMcBEK8BECc6CwguEIAEELEDEIMBOgUIABCABDoICC4QgAQQsQM6BAguEEM6DQgAELEDEIMBEMkDEENKBAhBGABKBAhGGAFQkAVYnRZgkxloAnABeACAAXWIAZEFkgEDMC42mAEAoAEBsAEKyAETwAEB2gEGCAEQARgJ2gEGCAIQARgI&amp;sclient=gws-wiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.google.com/search?q=flight&amp;rlz=1C1YTUH_enIN1012IN1012&amp;sxsrf=ALiCzsZSanxHPvP5j6kXcmrpGoypyEMa9Q%3A1665383707296&amp;ei=G71DY7nOEcuSseMPnPWO0Ak&amp;oq=flight&amp;gs_lcp=Cgdnd3Mtd2l6EAEYADIHCAAQsQMQQzIKCAAQsQMQgwEQQzIHCAAQsQMQQzIKCAAQsQMQgwEQQzILCAAQgAQQsQMQgwEyCgguEMcBENEDEEMyCwgAEIAEELEDEIMBMgsIABCABBCxAxCDATIICAAQsQMQgwEyCwgAEIAEELEDEIMBOgQIABBHOgcIIxDqAhAnOgQIIxAnOgsILhCABBCxAxCDAToFCAAQgAQ6BAgAEEM6BwguENQCEENKBAhBGABKBAhGGABQiARYzh1gxitoAHADeACAAd0CiAGqCJIBBzAuNi4wLjGYAQCgAQGwAQrIAQjAAQE&amp;sclient=gws-wiz</t>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295284&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294817&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294821&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294839&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294842&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295307&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295298&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294992&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294831&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295077&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295334&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295320&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295060&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294045&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295129&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295434&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295357&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295148&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295098&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295144&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295645&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295164&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295171&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295220&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295210&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295440&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295203&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295201&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295216&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295327&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295205&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295356&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295377&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295359&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295313&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295887&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295411&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295399&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295393&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295395&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295988&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295413&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295532&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295403&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295407&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296061&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295530&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295614&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295848&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295896&amp;action=edit&amp;classic-editor</t>
   </si>
 </sst>
 </file>
@@ -41,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -64,9 +205,15 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -122,7 +269,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -143,43 +290,279 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="128.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/bobcares/src/test/java/com/bobcares/testdata/DATA1.xlsx
+++ b/bobcares/src/test/java/com/bobcares/testdata/DATA1.xlsx
@@ -20,159 +20,312 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
   <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295284&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294817&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294821&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294839&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294842&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295307&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295298&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294992&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294831&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295077&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295334&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295320&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295060&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=294045&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295129&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295434&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295357&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295148&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295098&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295144&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295645&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295164&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295171&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295220&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295210&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295440&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295203&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295201&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295216&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295327&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295205&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295356&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295377&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295359&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295313&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295887&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295411&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295399&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295393&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295395&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295988&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295413&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295532&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295403&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295407&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296061&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295530&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295614&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295848&amp;action=edit&amp;classic-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295896&amp;action=edit&amp;classic-editor</t>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296120&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295616&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295678&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295710&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295797&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295735&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295784&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295713&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295809&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295877&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296239&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295766&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295776&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295801&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295968&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296277&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295803&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295786&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295944&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296078&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296281&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296304&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295957&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296068&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295966&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296380&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296374&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296011&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295949&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295795&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296081&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295986&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295984&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295981&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296265&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295875&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296523&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296519&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296152&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295627&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295497&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296207&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296249&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296489&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296391&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296582&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296637&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296538&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296452&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296389&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296531&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296556&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296527&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296018&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296588&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296700&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296690&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296449&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296665&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296590&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296768&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296102&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296253&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296645&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296320&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296765&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296111&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296397&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296066&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296713&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296816&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296822&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296257&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296535&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296663&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296897&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296444&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296440&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296707&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296791&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296959&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296623&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296647&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296789&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296831&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296997&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296651&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296711&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296661&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296827&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=297070&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=297120&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296447&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296467&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=297235&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296749&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296784&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=295629&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296317&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=297157&amp;action=edit&amp;classic-editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bobcares.com/wp-admin/post.php?post=296656&amp;action=edit&amp;classic-editor</t>
   </si>
 </sst>
 </file>
@@ -290,10 +443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,6 +717,261 @@
         <v>50</v>
       </c>
     </row>
+    <row r="52" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
